--- a/data/GeneralEU2.xlsx
+++ b/data/GeneralEU2.xlsx
@@ -9,6 +9,7 @@
     <sheet name="Summary" r:id="rId3" sheetId="1"/>
     <sheet name="Structure" r:id="rId4" sheetId="2"/>
     <sheet name="Sheet 1" r:id="rId5" sheetId="3"/>
+    <sheet name="Sheet 2" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
@@ -342,7 +343,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>536933</xdr:colOff>
+      <xdr:colOff>420483</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -388,7 +389,7 @@
     <col min="2" max="2" width="8.8828125" customWidth="true"/>
     <col min="3" max="3" width="14.48046875" customWidth="true"/>
     <col min="6" max="6" width="14.78515625" customWidth="true"/>
-    <col min="7" max="7" width="4.75390625" customWidth="true"/>
+    <col min="7" max="7" width="6.5" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="6">
@@ -521,6 +522,38 @@
       <c r="G16" s="2" t="inlineStr">
         <is>
           <t>Males</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="17" t="inlineStr">
+        <is>
+          <t>Sheet 2</t>
+        </is>
+      </c>
+      <c r="C17" s="16" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+      <c r="D17" s="16" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E17" s="16" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F17" s="16" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+      <c r="G17" s="16" t="inlineStr">
+        <is>
+          <t>Females</t>
         </is>
       </c>
     </row>
@@ -532,6 +565,7 @@
     <hyperlink ref="A7" r:id="rId2"/>
     <hyperlink ref="B7" r:id="rId3"/>
     <hyperlink location="'Sheet 1'!A1" ref="B16"/>
+    <hyperlink location="'Sheet 2'!A1" ref="B17"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -646,12 +680,12 @@
     <row r="9">
       <c r="B9" s="16" t="inlineStr">
         <is>
-          <t>Geopolitical entity (reporting)</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="C9" s="16" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Females</t>
         </is>
       </c>
     </row>
@@ -663,7 +697,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Belgium</t>
         </is>
       </c>
     </row>
@@ -675,7 +709,7 @@
       </c>
       <c r="C11" s="16" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Bulgaria</t>
         </is>
       </c>
     </row>
@@ -687,7 +721,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Czechia</t>
         </is>
       </c>
     </row>
@@ -699,7 +733,7 @@
       </c>
       <c r="C13" s="16" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Denmark</t>
         </is>
       </c>
     </row>
@@ -711,7 +745,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Germany</t>
         </is>
       </c>
     </row>
@@ -723,7 +757,7 @@
       </c>
       <c r="C15" s="16" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Estonia</t>
         </is>
       </c>
     </row>
@@ -735,7 +769,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Ireland</t>
         </is>
       </c>
     </row>
@@ -747,7 +781,7 @@
       </c>
       <c r="C17" s="16" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Greece</t>
         </is>
       </c>
     </row>
@@ -759,7 +793,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
     </row>
@@ -771,7 +805,7 @@
       </c>
       <c r="C19" s="16" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>France</t>
         </is>
       </c>
     </row>
@@ -783,7 +817,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
@@ -795,7 +829,7 @@
       </c>
       <c r="C21" s="16" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
@@ -807,7 +841,7 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Cyprus</t>
         </is>
       </c>
     </row>
@@ -819,7 +853,7 @@
       </c>
       <c r="C23" s="16" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Latvia</t>
         </is>
       </c>
     </row>
@@ -831,7 +865,7 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Lithuania</t>
         </is>
       </c>
     </row>
@@ -843,7 +877,7 @@
       </c>
       <c r="C25" s="16" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Luxembourg</t>
         </is>
       </c>
     </row>
@@ -855,7 +889,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Hungary</t>
         </is>
       </c>
     </row>
@@ -867,7 +901,7 @@
       </c>
       <c r="C27" s="16" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Malta</t>
         </is>
       </c>
     </row>
@@ -879,7 +913,7 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Netherlands</t>
         </is>
       </c>
     </row>
@@ -891,7 +925,7 @@
       </c>
       <c r="C29" s="16" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Austria</t>
         </is>
       </c>
     </row>
@@ -903,7 +937,7 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Poland</t>
         </is>
       </c>
     </row>
@@ -915,7 +949,7 @@
       </c>
       <c r="C31" s="16" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
@@ -927,7 +961,7 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Romania</t>
         </is>
       </c>
     </row>
@@ -939,7 +973,7 @@
       </c>
       <c r="C33" s="16" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Slovenia</t>
         </is>
       </c>
     </row>
@@ -951,7 +985,7 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Slovakia</t>
         </is>
       </c>
     </row>
@@ -963,19 +997,19 @@
       </c>
       <c r="C35" s="16" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Finland</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Time</t>
+          <t>Geopolitical entity (reporting)</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>Sweden</t>
         </is>
       </c>
     </row>
@@ -987,7 +1021,7 @@
       </c>
       <c r="C37" s="16" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1998</t>
         </is>
       </c>
     </row>
@@ -999,7 +1033,7 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1999</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1045,7 @@
       </c>
       <c r="C39" s="16" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1057,7 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2001</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1069,7 @@
       </c>
       <c r="C41" s="16" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2002</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1081,7 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2003</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1093,7 @@
       </c>
       <c r="C43" s="16" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2004</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1105,7 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2005</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1117,7 @@
       </c>
       <c r="C45" s="16" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2006</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1129,7 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2007</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1141,7 @@
       </c>
       <c r="C47" s="16" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2008</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1153,7 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2009</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1165,7 @@
       </c>
       <c r="C49" s="16" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1177,7 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1189,7 @@
       </c>
       <c r="C51" s="16" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1201,7 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1213,7 @@
       </c>
       <c r="C53" s="16" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1225,7 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
@@ -1203,7 +1237,7 @@
       </c>
       <c r="C55" s="16" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1249,7 @@
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1261,7 @@
       </c>
       <c r="C57" s="16" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1273,7 @@
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1285,7 @@
       </c>
       <c r="C59" s="16" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1297,7 @@
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1309,7 @@
       </c>
       <c r="C61" s="16" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
     </row>
@@ -1286,6 +1320,18 @@
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="16" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="C63" s="16" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
@@ -1340,7 +1386,7 @@
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>Data extracted on 28/03/2025 15:32:58 from [ESTAT]</t>
+          <t>Data extracted on 28/03/2025 15:41:24 from [ESTAT]</t>
         </is>
       </c>
     </row>
@@ -4312,4 +4358,3022 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="12.0" state="frozen" topLeftCell="B13" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.399999618530273" customHeight="true"/>
+  <cols>
+    <col min="1" max="1" width="11.953125" customWidth="true"/>
+    <col min="2" max="2" width="9.9609375" customWidth="true"/>
+    <col min="3" max="3" width="9.9609375" customWidth="true"/>
+    <col min="4" max="4" width="9.9609375" customWidth="true"/>
+    <col min="5" max="5" width="9.9609375" customWidth="true"/>
+    <col min="6" max="6" width="9.9609375" customWidth="true"/>
+    <col min="7" max="7" width="9.9609375" customWidth="true"/>
+    <col min="8" max="8" width="9.9609375" customWidth="true"/>
+    <col min="9" max="9" width="9.9609375" customWidth="true"/>
+    <col min="10" max="10" width="9.9609375" customWidth="true"/>
+    <col min="11" max="11" width="9.9609375" customWidth="true"/>
+    <col min="12" max="12" width="9.9609375" customWidth="true"/>
+    <col min="13" max="13" width="9.9609375" customWidth="true"/>
+    <col min="14" max="14" width="9.9609375" customWidth="true"/>
+    <col min="15" max="15" width="9.9609375" customWidth="true"/>
+    <col min="16" max="16" width="9.9609375" customWidth="true"/>
+    <col min="17" max="17" width="9.9609375" customWidth="true"/>
+    <col min="18" max="18" width="9.9609375" customWidth="true"/>
+    <col min="19" max="19" width="9.9609375" customWidth="true"/>
+    <col min="20" max="20" width="9.9609375" customWidth="true"/>
+    <col min="21" max="21" width="9.9609375" customWidth="true"/>
+    <col min="22" max="22" width="9.9609375" customWidth="true"/>
+    <col min="23" max="23" width="9.9609375" customWidth="true"/>
+    <col min="24" max="24" width="9.9609375" customWidth="true"/>
+    <col min="25" max="25" width="9.9609375" customWidth="true"/>
+    <col min="26" max="26" width="9.9609375" customWidth="true"/>
+    <col min="27" max="27" width="9.9609375" customWidth="true"/>
+    <col min="28" max="28" width="9.9609375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Data extracted on 28/03/2025 15:41:24 from [ESTAT]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dataset: </t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Population on 1 January by age group, sex and citizenship [migr_pop1ctz__custom_16032401]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Last updated: </t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>13/03/2025 23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+</row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Time frequency</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Annual</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Country of citizenship</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Age class</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Unit of measure</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Females</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+</row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>TIME</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="H11" s="4" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I11" s="4" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="J11" s="4" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="K11" s="4" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L11" s="4" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="M11" s="4" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="N11" s="4" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="O11" s="4" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="P11" s="4" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="Q11" s="4" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="R11" s="4" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="S11" s="4" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="T11" s="4" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="U11" s="4" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="V11" s="4" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="W11" s="4" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="X11" s="4" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="Y11" s="4" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="Z11" s="4" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AA11" s="4" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="AB11" s="4" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>GEO (Labels)</t>
+        </is>
+      </c>
+      <c r="B12" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C12" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I12" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J12" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K12" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L12" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M12" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N12" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O12" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P12" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q12" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R12" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="S12" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T12" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="U12" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V12" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W12" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X12" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y12" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z12" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA12" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB12" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>5209592.0</v>
+      </c>
+      <c r="C13" s="10" t="n">
+        <v>5220034.0</v>
+      </c>
+      <c r="D13" s="10" t="n">
+        <v>5233071.0</v>
+      </c>
+      <c r="E13" s="10" t="n">
+        <v>5245395.0</v>
+      </c>
+      <c r="F13" s="10" t="n">
+        <v>5268464.0</v>
+      </c>
+      <c r="G13" s="10" t="n">
+        <v>5288959.0</v>
+      </c>
+      <c r="H13" s="10" t="n">
+        <v>5309245.0</v>
+      </c>
+      <c r="I13" s="10" t="n">
+        <v>5334527.0</v>
+      </c>
+      <c r="J13" s="10" t="n">
+        <v>5367561.0</v>
+      </c>
+      <c r="K13" s="10" t="n">
+        <v>5403126.0</v>
+      </c>
+      <c r="L13" s="10" t="n">
+        <v>5442557.0</v>
+      </c>
+      <c r="M13" s="10" t="n">
+        <v>5484429.0</v>
+      </c>
+      <c r="N13" s="10" t="n">
+        <v>5527684.0</v>
+      </c>
+      <c r="O13" s="10" t="n">
+        <v>5598920.0</v>
+      </c>
+      <c r="P13" s="10" t="n">
+        <v>5635601.0</v>
+      </c>
+      <c r="Q13" s="10" t="n">
+        <v>5665118.0</v>
+      </c>
+      <c r="R13" s="10" t="n">
+        <v>5687048.0</v>
+      </c>
+      <c r="S13" s="10" t="n">
+        <v>5713206.0</v>
+      </c>
+      <c r="T13" s="10" t="n">
+        <v>5741853.0</v>
+      </c>
+      <c r="U13" s="10" t="n">
+        <v>5762455.0</v>
+      </c>
+      <c r="V13" s="10" t="n">
+        <v>5784371.0</v>
+      </c>
+      <c r="W13" s="10" t="n">
+        <v>5810693.0</v>
+      </c>
+      <c r="X13" s="10" t="n">
+        <v>5841215.0</v>
+      </c>
+      <c r="Y13" s="10" t="n">
+        <v>5854293.0</v>
+      </c>
+      <c r="Z13" s="10" t="n">
+        <v>5883978.0</v>
+      </c>
+      <c r="AA13" s="10" t="n">
+        <v>5946649.0</v>
+      </c>
+      <c r="AB13" s="10" t="n">
+        <v>5981093.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="B14" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C14" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E14" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G14" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H14" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I14" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J14" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K14" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L14" s="11" t="n">
+        <v>3857635.0</v>
+      </c>
+      <c r="M14" s="11" t="n">
+        <v>3831264.0</v>
+      </c>
+      <c r="N14" s="11" t="n">
+        <v>3807808.0</v>
+      </c>
+      <c r="O14" s="11" t="n">
+        <v>3780505.0</v>
+      </c>
+      <c r="P14" s="11" t="n">
+        <v>3760457.0</v>
+      </c>
+      <c r="Q14" s="11" t="n">
+        <v>3701945.0</v>
+      </c>
+      <c r="R14" s="11" t="n">
+        <v>3662824.0</v>
+      </c>
+      <c r="S14" s="11" t="n">
+        <v>3621883.0</v>
+      </c>
+      <c r="T14" s="11" t="n">
+        <v>3578998.0</v>
+      </c>
+      <c r="U14" s="11" t="n">
+        <v>3537549.0</v>
+      </c>
+      <c r="V14" s="11" t="n">
+        <v>3494184.0</v>
+      </c>
+      <c r="W14" s="11" t="n">
+        <v>3450251.0</v>
+      </c>
+      <c r="X14" s="11" t="n">
+        <v>3405861.0</v>
+      </c>
+      <c r="Y14" s="11" t="n">
+        <v>3389807.0</v>
+      </c>
+      <c r="Z14" s="11" t="n">
+        <v>3364303.0</v>
+      </c>
+      <c r="AA14" s="11" t="n">
+        <v>3348207.0</v>
+      </c>
+      <c r="AB14" s="11" t="n">
+        <v>3347783.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>Czechia</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C15" s="10" t="n">
+        <v>5284186.0</v>
+      </c>
+      <c r="D15" s="10" t="n">
+        <v>5326569.0</v>
+      </c>
+      <c r="E15" s="10" t="n">
+        <v>5338115.0</v>
+      </c>
+      <c r="F15" s="10" t="n">
+        <v>5238450.0</v>
+      </c>
+      <c r="G15" s="10" t="n">
+        <v>5236563.0</v>
+      </c>
+      <c r="H15" s="10" t="n">
+        <v>5236715.0</v>
+      </c>
+      <c r="I15" s="10" t="n">
+        <v>5239664.0</v>
+      </c>
+      <c r="J15" s="10" t="n">
+        <v>5248431.0</v>
+      </c>
+      <c r="K15" s="10" t="n">
+        <v>5261005.0</v>
+      </c>
+      <c r="L15" s="10" t="n">
+        <v>5298196.0</v>
+      </c>
+      <c r="M15" s="10" t="n">
+        <v>5331165.0</v>
+      </c>
+      <c r="N15" s="10" t="n">
+        <v>5349616.0</v>
+      </c>
+      <c r="O15" s="10" t="n">
+        <v>5363971.0</v>
+      </c>
+      <c r="P15" s="10" t="n">
+        <v>5347235.0</v>
+      </c>
+      <c r="Q15" s="10" t="n">
+        <v>5351776.0</v>
+      </c>
+      <c r="R15" s="10" t="n">
+        <v>5350039.0</v>
+      </c>
+      <c r="S15" s="10" t="n">
+        <v>5361348.0</v>
+      </c>
+      <c r="T15" s="10" t="n">
+        <v>5367513.0</v>
+      </c>
+      <c r="U15" s="10" t="n">
+        <v>5378133.0</v>
+      </c>
+      <c r="V15" s="10" t="n">
+        <v>5390264.0</v>
+      </c>
+      <c r="W15" s="10" t="n">
+        <v>5405606.0</v>
+      </c>
+      <c r="X15" s="10" t="n">
+        <v>5421943.0</v>
+      </c>
+      <c r="Y15" s="10" t="n">
+        <v>5323934.0</v>
+      </c>
+      <c r="Z15" s="10" t="n">
+        <v>5332932.0</v>
+      </c>
+      <c r="AA15" s="10" t="n">
+        <v>5519006.0</v>
+      </c>
+      <c r="AB15" s="10" t="n">
+        <v>5557945.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B16" s="11" t="n">
+        <v>2679191.0</v>
+      </c>
+      <c r="C16" s="11" t="n">
+        <v>2688156.0</v>
+      </c>
+      <c r="D16" s="11" t="n">
+        <v>2695898.0</v>
+      </c>
+      <c r="E16" s="11" t="n">
+        <v>2704893.0</v>
+      </c>
+      <c r="F16" s="11" t="n">
+        <v>2714208.0</v>
+      </c>
+      <c r="G16" s="11" t="n">
+        <v>2721084.0</v>
+      </c>
+      <c r="H16" s="11" t="n">
+        <v>2727505.0</v>
+      </c>
+      <c r="I16" s="11" t="n">
+        <v>2734113.0</v>
+      </c>
+      <c r="J16" s="11" t="n">
+        <v>2741613.0</v>
+      </c>
+      <c r="K16" s="11" t="n">
+        <v>2750422.0</v>
+      </c>
+      <c r="L16" s="11" t="n">
+        <v>2763101.0</v>
+      </c>
+      <c r="M16" s="11" t="n">
+        <v>2779431.0</v>
+      </c>
+      <c r="N16" s="11" t="n">
+        <v>2791452.0</v>
+      </c>
+      <c r="O16" s="11" t="n">
+        <v>2804046.0</v>
+      </c>
+      <c r="P16" s="11" t="n">
+        <v>2813740.0</v>
+      </c>
+      <c r="Q16" s="11" t="n">
+        <v>2823776.0</v>
+      </c>
+      <c r="R16" s="11" t="n">
+        <v>2834956.0</v>
+      </c>
+      <c r="S16" s="11" t="n">
+        <v>2848701.0</v>
+      </c>
+      <c r="T16" s="11" t="n">
+        <v>2869364.0</v>
+      </c>
+      <c r="U16" s="11" t="n">
+        <v>2888591.0</v>
+      </c>
+      <c r="V16" s="11" t="n">
+        <v>2904717.0</v>
+      </c>
+      <c r="W16" s="11" t="n">
+        <v>2917008.0</v>
+      </c>
+      <c r="X16" s="11" t="n">
+        <v>2925845.0</v>
+      </c>
+      <c r="Y16" s="11" t="n">
+        <v>2935188.0</v>
+      </c>
+      <c r="Z16" s="11" t="n">
+        <v>2950505.0</v>
+      </c>
+      <c r="AA16" s="11" t="n">
+        <v>2983655.0</v>
+      </c>
+      <c r="AB16" s="11" t="n">
+        <v>2997558.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>4.2065068E7</v>
+      </c>
+      <c r="C17" s="10" t="n">
+        <v>4.2032869E7</v>
+      </c>
+      <c r="D17" s="10" t="n">
+        <v>4.2072699E7</v>
+      </c>
+      <c r="E17" s="10" t="n">
+        <v>4.2103004E7</v>
+      </c>
+      <c r="F17" s="10" t="n">
+        <v>4.2165633E7</v>
+      </c>
+      <c r="G17" s="10" t="n">
+        <v>4.2191801E7</v>
+      </c>
+      <c r="H17" s="10" t="n">
+        <v>4.2175657E7</v>
+      </c>
+      <c r="I17" s="10" t="n">
+        <v>4.2147222E7</v>
+      </c>
+      <c r="J17" s="10" t="n">
+        <v>4.2098034E7</v>
+      </c>
+      <c r="K17" s="10" t="n">
+        <v>4.201374E7</v>
+      </c>
+      <c r="L17" s="10" t="n">
+        <v>4.1943545E7</v>
+      </c>
+      <c r="M17" s="10" t="n">
+        <v>4.1818073E7</v>
+      </c>
+      <c r="N17" s="10" t="n">
+        <v>4.1698651E7</v>
+      </c>
+      <c r="O17" s="10" t="n">
+        <v>4.1097465E7</v>
+      </c>
+      <c r="P17" s="10" t="n">
+        <v>4.1097953E7</v>
+      </c>
+      <c r="Q17" s="10" t="n">
+        <v>4.114277E7</v>
+      </c>
+      <c r="R17" s="10" t="n">
+        <v>4.121054E7</v>
+      </c>
+      <c r="S17" s="10" t="n">
+        <v>4.136208E7</v>
+      </c>
+      <c r="T17" s="10" t="n">
+        <v>4.1661561E7</v>
+      </c>
+      <c r="U17" s="10" t="n">
+        <v>4.1824535E7</v>
+      </c>
+      <c r="V17" s="10" t="n">
+        <v>4.1948786E7</v>
+      </c>
+      <c r="W17" s="10" t="n">
+        <v>4.2052522E7</v>
+      </c>
+      <c r="X17" s="10" t="n">
+        <v>4.2129098E7</v>
+      </c>
+      <c r="Y17" s="10" t="n">
+        <v>4.2128512E7</v>
+      </c>
+      <c r="Z17" s="10" t="n">
+        <v>4.2170339E7</v>
+      </c>
+      <c r="AA17" s="10" t="n">
+        <v>4.2198796E7</v>
+      </c>
+      <c r="AB17" s="10" t="n">
+        <v>4.2294114E7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="B18" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C18" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D18" s="11" t="n">
+        <v>738201.0</v>
+      </c>
+      <c r="E18" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F18" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G18" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H18" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I18" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J18" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K18" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L18" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M18" s="11" t="n">
+        <v>723116.0</v>
+      </c>
+      <c r="N18" s="11" t="n">
+        <v>722804.0</v>
+      </c>
+      <c r="O18" s="11" t="n">
+        <v>709985.0</v>
+      </c>
+      <c r="P18" s="11" t="n">
+        <v>707687.0</v>
+      </c>
+      <c r="Q18" s="11" t="n">
+        <v>704007.0</v>
+      </c>
+      <c r="R18" s="11" t="n">
+        <v>700900.0</v>
+      </c>
+      <c r="S18" s="11" t="n">
+        <v>700166.0</v>
+      </c>
+      <c r="T18" s="11" t="n">
+        <v>699236.0</v>
+      </c>
+      <c r="U18" s="11" t="n">
+        <v>698097.0</v>
+      </c>
+      <c r="V18" s="11" t="n">
+        <v>698049.0</v>
+      </c>
+      <c r="W18" s="11" t="n">
+        <v>699185.0</v>
+      </c>
+      <c r="X18" s="11" t="n">
+        <v>699699.0</v>
+      </c>
+      <c r="Y18" s="11" t="n">
+        <v>699153.0</v>
+      </c>
+      <c r="Z18" s="11" t="n">
+        <v>698381.0</v>
+      </c>
+      <c r="AA18" s="11" t="n">
+        <v>718518.0</v>
+      </c>
+      <c r="AB18" s="11" t="n">
+        <v>723074.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>1859395.0</v>
+      </c>
+      <c r="C19" s="10" t="n">
+        <v>1878331.0</v>
+      </c>
+      <c r="D19" s="10" t="n">
+        <v>1900701.0</v>
+      </c>
+      <c r="E19" s="10" t="n">
+        <v>1927201.0</v>
+      </c>
+      <c r="F19" s="10" t="n">
+        <v>1994964.0</v>
+      </c>
+      <c r="G19" s="10" t="n">
+        <v>1994964.0</v>
+      </c>
+      <c r="H19" s="10" t="n">
+        <v>2025689.0</v>
+      </c>
+      <c r="I19" s="10" t="n">
+        <v>2062322.0</v>
+      </c>
+      <c r="J19" s="10" t="n">
+        <v>2104707.0</v>
+      </c>
+      <c r="K19" s="10" t="n">
+        <v>2167328.0</v>
+      </c>
+      <c r="L19" s="10" t="n">
+        <v>2231011.0</v>
+      </c>
+      <c r="M19" s="10" t="n">
+        <v>2268664.0</v>
+      </c>
+      <c r="N19" s="10" t="n">
+        <v>2288454.0</v>
+      </c>
+      <c r="O19" s="10" t="n">
+        <v>2301455.0</v>
+      </c>
+      <c r="P19" s="10" t="n">
+        <v>2315288.0</v>
+      </c>
+      <c r="Q19" s="10" t="n">
+        <v>2326317.0</v>
+      </c>
+      <c r="R19" s="10" t="n">
+        <v>2342002.0</v>
+      </c>
+      <c r="S19" s="10" t="n">
+        <v>2364285.0</v>
+      </c>
+      <c r="T19" s="10" t="n">
+        <v>2387145.0</v>
+      </c>
+      <c r="U19" s="10" t="n">
+        <v>2424201.0</v>
+      </c>
+      <c r="V19" s="10" t="n">
+        <v>2451343.0</v>
+      </c>
+      <c r="W19" s="10" t="n">
+        <v>2493497.0</v>
+      </c>
+      <c r="X19" s="10" t="n">
+        <v>2530888.0</v>
+      </c>
+      <c r="Y19" s="10" t="n">
+        <v>2557709.0</v>
+      </c>
+      <c r="Z19" s="10" t="n">
+        <v>2604045.0</v>
+      </c>
+      <c r="AA19" s="10" t="n">
+        <v>2666848.0</v>
+      </c>
+      <c r="AB19" s="10" t="n">
+        <v>2708306.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="B20" s="11" t="n">
+        <v>5329741.0</v>
+      </c>
+      <c r="C20" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E20" s="11" t="n">
+        <v>5520671.0</v>
+      </c>
+      <c r="F20" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H20" s="11" t="n">
+        <v>5576249.0</v>
+      </c>
+      <c r="I20" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J20" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K20" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L20" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M20" s="11" t="n">
+        <v>5638650.0</v>
+      </c>
+      <c r="N20" s="11" t="n">
+        <v>5658424.0</v>
+      </c>
+      <c r="O20" s="11" t="n">
+        <v>5669948.0</v>
+      </c>
+      <c r="P20" s="11" t="n">
+        <v>5662522.0</v>
+      </c>
+      <c r="Q20" s="11" t="n">
+        <v>5637364.0</v>
+      </c>
+      <c r="R20" s="11" t="n">
+        <v>5613568.0</v>
+      </c>
+      <c r="S20" s="11" t="n">
+        <v>5589628.0</v>
+      </c>
+      <c r="T20" s="11" t="n">
+        <v>5559538.0</v>
+      </c>
+      <c r="U20" s="11" t="n">
+        <v>5546916.0</v>
+      </c>
+      <c r="V20" s="11" t="n">
+        <v>5531125.0</v>
+      </c>
+      <c r="W20" s="11" t="n">
+        <v>5516306.0</v>
+      </c>
+      <c r="X20" s="11" t="n">
+        <v>5503077.0</v>
+      </c>
+      <c r="Y20" s="11" t="n">
+        <v>5482584.0</v>
+      </c>
+      <c r="Z20" s="11" t="n">
+        <v>5345035.0</v>
+      </c>
+      <c r="AA20" s="11" t="n">
+        <v>5320643.0</v>
+      </c>
+      <c r="AB20" s="11" t="n">
+        <v>5303827.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>2.0478881E7</v>
+      </c>
+      <c r="C21" s="10" t="n">
+        <v>2.0559308E7</v>
+      </c>
+      <c r="D21" s="10" t="n">
+        <v>2.0643845E7</v>
+      </c>
+      <c r="E21" s="10" t="n">
+        <v>2.0741652E7</v>
+      </c>
+      <c r="F21" s="10" t="n">
+        <v>2.0919748E7</v>
+      </c>
+      <c r="G21" s="10" t="n">
+        <v>2.1285368E7</v>
+      </c>
+      <c r="H21" s="10" t="n">
+        <v>2.1622871E7</v>
+      </c>
+      <c r="I21" s="10" t="n">
+        <v>2.1961051E7</v>
+      </c>
+      <c r="J21" s="10" t="n">
+        <v>2.2290651E7</v>
+      </c>
+      <c r="K21" s="10" t="n">
+        <v>2.2665689E7</v>
+      </c>
+      <c r="L21" s="10" t="n">
+        <v>2.3077453E7</v>
+      </c>
+      <c r="M21" s="10" t="n">
+        <v>2.3358737E7</v>
+      </c>
+      <c r="N21" s="10" t="n">
+        <v>2.3504347E7</v>
+      </c>
+      <c r="O21" s="10" t="n">
+        <v>2.3617697E7</v>
+      </c>
+      <c r="P21" s="10" t="n">
+        <v>2.3719207E7</v>
+      </c>
+      <c r="Q21" s="10" t="n">
+        <v>2.3699424E7</v>
+      </c>
+      <c r="R21" s="10" t="n">
+        <v>2.3621034E7</v>
+      </c>
+      <c r="S21" s="10" t="n">
+        <v>2.3603001E7</v>
+      </c>
+      <c r="T21" s="10" t="n">
+        <v>2.3612439E7</v>
+      </c>
+      <c r="U21" s="10" t="n">
+        <v>2.3666286E7</v>
+      </c>
+      <c r="V21" s="10" t="n">
+        <v>2.375547E7</v>
+      </c>
+      <c r="W21" s="10" t="n">
+        <v>2.3902168E7</v>
+      </c>
+      <c r="X21" s="10" t="n">
+        <v>2.4107382E7</v>
+      </c>
+      <c r="Y21" s="10" t="n">
+        <v>2.4152187E7</v>
+      </c>
+      <c r="Z21" s="10" t="n">
+        <v>2.4198046E7</v>
+      </c>
+      <c r="AA21" s="10" t="n">
+        <v>2.4519768E7</v>
+      </c>
+      <c r="AB21" s="10" t="n">
+        <v>2.4792824E7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="B22" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C22" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D22" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E22" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F22" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G22" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H22" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I22" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J22" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K22" s="11" t="n">
+        <v>3.2841834E7</v>
+      </c>
+      <c r="L22" s="11" t="n">
+        <v>3.3026963E7</v>
+      </c>
+      <c r="M22" s="11" t="n">
+        <v>3.3202247E7</v>
+      </c>
+      <c r="N22" s="11" t="n">
+        <v>3.3357092E7</v>
+      </c>
+      <c r="O22" s="11" t="n">
+        <v>3.3515819E7</v>
+      </c>
+      <c r="P22" s="11" t="n">
+        <v>3.36716E7</v>
+      </c>
+      <c r="Q22" s="11" t="n">
+        <v>3.3827685E7</v>
+      </c>
+      <c r="R22" s="11" t="n">
+        <v>3.4120851E7</v>
+      </c>
+      <c r="S22" s="11" t="n">
+        <v>3.4283895E7</v>
+      </c>
+      <c r="T22" s="11" t="n">
+        <v>3.4391005E7</v>
+      </c>
+      <c r="U22" s="11" t="n">
+        <v>3.4495464E7</v>
+      </c>
+      <c r="V22" s="11" t="n">
+        <v>3.4611994E7</v>
+      </c>
+      <c r="W22" s="11" t="n">
+        <v>3.4739132E7</v>
+      </c>
+      <c r="X22" s="11" t="n">
+        <v>3.482867E7</v>
+      </c>
+      <c r="Y22" s="11" t="n">
+        <v>3.4946473E7</v>
+      </c>
+      <c r="Z22" s="11" t="n">
+        <v>3.5109077E7</v>
+      </c>
+      <c r="AA22" s="11" t="n">
+        <v>3.5188809E7</v>
+      </c>
+      <c r="AB22" s="11" t="n">
+        <v>3.5271283E7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="B23" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C23" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D23" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E23" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F23" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G23" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H23" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I23" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J23" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K23" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L23" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M23" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N23" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O23" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P23" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q23" s="10" t="n">
+        <v>2200305.0</v>
+      </c>
+      <c r="R23" s="10" t="n">
+        <v>2186646.0</v>
+      </c>
+      <c r="S23" s="10" t="n">
+        <v>2170159.0</v>
+      </c>
+      <c r="T23" s="10" t="n">
+        <v>2146424.0</v>
+      </c>
+      <c r="U23" s="10" t="n">
+        <v>2122085.0</v>
+      </c>
+      <c r="V23" s="10" t="n">
+        <v>2090961.0</v>
+      </c>
+      <c r="W23" s="10" t="n">
+        <v>2064873.0</v>
+      </c>
+      <c r="X23" s="10" t="n">
+        <v>2041528.0</v>
+      </c>
+      <c r="Y23" s="10" t="n">
+        <v>2019003.0</v>
+      </c>
+      <c r="Z23" s="10" t="n">
+        <v>2000012.0</v>
+      </c>
+      <c r="AA23" s="10" t="n">
+        <v>1989028.0</v>
+      </c>
+      <c r="AB23" s="10" t="n">
+        <v>1986557.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B24" s="11" t="n">
+        <v>2.9332801E7</v>
+      </c>
+      <c r="C24" s="11" t="n">
+        <v>2.9345361E7</v>
+      </c>
+      <c r="D24" s="11" t="n">
+        <v>2.9360536E7</v>
+      </c>
+      <c r="E24" s="11" t="n">
+        <v>2.9384366E7</v>
+      </c>
+      <c r="F24" s="11" t="n">
+        <v>2.9404981E7</v>
+      </c>
+      <c r="G24" s="11" t="n">
+        <v>2.949933E7</v>
+      </c>
+      <c r="H24" s="11" t="n">
+        <v>2.9708271E7</v>
+      </c>
+      <c r="I24" s="11" t="n">
+        <v>2.991606E7</v>
+      </c>
+      <c r="J24" s="11" t="n">
+        <v>3.0038703E7</v>
+      </c>
+      <c r="K24" s="11" t="n">
+        <v>3.0155967E7</v>
+      </c>
+      <c r="L24" s="11" t="n">
+        <v>3.0417328E7</v>
+      </c>
+      <c r="M24" s="11" t="n">
+        <v>3.0639337E7</v>
+      </c>
+      <c r="N24" s="11" t="n">
+        <v>3.0787289E7</v>
+      </c>
+      <c r="O24" s="11" t="n">
+        <v>3.0933668E7</v>
+      </c>
+      <c r="P24" s="11" t="n">
+        <v>3.1014838E7</v>
+      </c>
+      <c r="Q24" s="11" t="n">
+        <v>3.108341E7</v>
+      </c>
+      <c r="R24" s="11" t="n">
+        <v>3.1104396E7</v>
+      </c>
+      <c r="S24" s="11" t="n">
+        <v>3.1067182E7</v>
+      </c>
+      <c r="T24" s="11" t="n">
+        <v>3.0970668E7</v>
+      </c>
+      <c r="U24" s="11" t="n">
+        <v>3.088808E7</v>
+      </c>
+      <c r="V24" s="11" t="n">
+        <v>3.07813E7</v>
+      </c>
+      <c r="W24" s="11" t="n">
+        <v>3.0685478E7</v>
+      </c>
+      <c r="X24" s="11" t="n">
+        <v>3.0591392E7</v>
+      </c>
+      <c r="Y24" s="11" t="n">
+        <v>3.0369987E7</v>
+      </c>
+      <c r="Z24" s="11" t="n">
+        <v>3.0211177E7</v>
+      </c>
+      <c r="AA24" s="11" t="n">
+        <v>3.0182369E7</v>
+      </c>
+      <c r="AB24" s="11" t="n">
+        <v>3.0124502E7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="inlineStr">
+        <is>
+          <t>Cyprus</t>
+        </is>
+      </c>
+      <c r="B25" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C25" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D25" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E25" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F25" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G25" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H25" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I25" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J25" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K25" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L25" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M25" s="10" t="n">
+        <v>401874.0</v>
+      </c>
+      <c r="N25" s="10" t="n">
+        <v>419535.0</v>
+      </c>
+      <c r="O25" s="10" t="n">
+        <v>430993.0</v>
+      </c>
+      <c r="P25" s="10" t="n">
+        <v>443018.0</v>
+      </c>
+      <c r="Q25" s="10" t="n">
+        <v>444842.0</v>
+      </c>
+      <c r="R25" s="10" t="n">
+        <v>440462.0</v>
+      </c>
+      <c r="S25" s="10" t="n">
+        <v>435183.0</v>
+      </c>
+      <c r="T25" s="10" t="n">
+        <v>435627.0</v>
+      </c>
+      <c r="U25" s="10" t="n">
+        <v>438139.0</v>
+      </c>
+      <c r="V25" s="10" t="n">
+        <v>442728.0</v>
+      </c>
+      <c r="W25" s="10" t="n">
+        <v>448068.0</v>
+      </c>
+      <c r="X25" s="10" t="n">
+        <v>453534.0</v>
+      </c>
+      <c r="Y25" s="10" t="n">
+        <v>458357.0</v>
+      </c>
+      <c r="Z25" s="10" t="n">
+        <v>463622.0</v>
+      </c>
+      <c r="AA25" s="10" t="n">
+        <v>483955.0</v>
+      </c>
+      <c r="AB25" s="10" t="n">
+        <v>490771.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="inlineStr">
+        <is>
+          <t>Latvia</t>
+        </is>
+      </c>
+      <c r="B26" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C26" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D26" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E26" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F26" s="11" t="n">
+        <v>1265652.0</v>
+      </c>
+      <c r="G26" s="11" t="n">
+        <v>1258423.0</v>
+      </c>
+      <c r="H26" s="11" t="n">
+        <v>1250867.0</v>
+      </c>
+      <c r="I26" s="11" t="n">
+        <v>1243516.0</v>
+      </c>
+      <c r="J26" s="11" t="n">
+        <v>1237306.0</v>
+      </c>
+      <c r="K26" s="11" t="n">
+        <v>1230271.0</v>
+      </c>
+      <c r="L26" s="11" t="n">
+        <v>1184769.0</v>
+      </c>
+      <c r="M26" s="11" t="n">
+        <v>1170186.0</v>
+      </c>
+      <c r="N26" s="11" t="n">
+        <v>1149573.0</v>
+      </c>
+      <c r="O26" s="11" t="n">
+        <v>1126666.0</v>
+      </c>
+      <c r="P26" s="11" t="n">
+        <v>1110001.0</v>
+      </c>
+      <c r="Q26" s="11" t="n">
+        <v>1097245.0</v>
+      </c>
+      <c r="R26" s="11" t="n">
+        <v>1084423.0</v>
+      </c>
+      <c r="S26" s="11" t="n">
+        <v>1074889.0</v>
+      </c>
+      <c r="T26" s="11" t="n">
+        <v>1064658.0</v>
+      </c>
+      <c r="U26" s="11" t="n">
+        <v>1054433.0</v>
+      </c>
+      <c r="V26" s="11" t="n">
+        <v>1044738.0</v>
+      </c>
+      <c r="W26" s="11" t="n">
+        <v>1035059.0</v>
+      </c>
+      <c r="X26" s="11" t="n">
+        <v>1026719.0</v>
+      </c>
+      <c r="Y26" s="11" t="n">
+        <v>1017998.0</v>
+      </c>
+      <c r="Z26" s="11" t="n">
+        <v>1006700.0</v>
+      </c>
+      <c r="AA26" s="11" t="n">
+        <v>1010687.0</v>
+      </c>
+      <c r="AB26" s="11" t="n">
+        <v>1003142.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B27" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C27" s="10" t="n">
+        <v>1878840.0</v>
+      </c>
+      <c r="D27" s="10" t="n">
+        <v>1867773.0</v>
+      </c>
+      <c r="E27" s="10" t="n">
+        <v>1854824.0</v>
+      </c>
+      <c r="F27" s="10" t="n">
+        <v>1841083.0</v>
+      </c>
+      <c r="G27" s="10" t="n">
+        <v>1830399.0</v>
+      </c>
+      <c r="H27" s="10" t="n">
+        <v>1814911.0</v>
+      </c>
+      <c r="I27" s="10" t="n">
+        <v>1792956.0</v>
+      </c>
+      <c r="J27" s="10" t="n">
+        <v>1761372.0</v>
+      </c>
+      <c r="K27" s="10" t="n">
+        <v>1743189.0</v>
+      </c>
+      <c r="L27" s="10" t="n">
+        <v>1725186.0</v>
+      </c>
+      <c r="M27" s="10" t="n">
+        <v>1710504.0</v>
+      </c>
+      <c r="N27" s="10" t="n">
+        <v>1691777.0</v>
+      </c>
+      <c r="O27" s="10" t="n">
+        <v>1645365.0</v>
+      </c>
+      <c r="P27" s="10" t="n">
+        <v>1620130.0</v>
+      </c>
+      <c r="Q27" s="10" t="n">
+        <v>1605225.0</v>
+      </c>
+      <c r="R27" s="10" t="n">
+        <v>1591447.0</v>
+      </c>
+      <c r="S27" s="10" t="n">
+        <v>1580254.0</v>
+      </c>
+      <c r="T27" s="10" t="n">
+        <v>1563839.0</v>
+      </c>
+      <c r="U27" s="10" t="n">
+        <v>1544399.0</v>
+      </c>
+      <c r="V27" s="10" t="n">
+        <v>1526156.0</v>
+      </c>
+      <c r="W27" s="10" t="n">
+        <v>1517016.0</v>
+      </c>
+      <c r="X27" s="10" t="n">
+        <v>1510500.0</v>
+      </c>
+      <c r="Y27" s="10" t="n">
+        <v>1505796.0</v>
+      </c>
+      <c r="Z27" s="10" t="n">
+        <v>1499399.0</v>
+      </c>
+      <c r="AA27" s="10" t="n">
+        <v>1521463.0</v>
+      </c>
+      <c r="AB27" s="10" t="n">
+        <v>1519986.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>Luxembourg</t>
+        </is>
+      </c>
+      <c r="B28" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C28" s="11" t="n">
+        <v>217009.0</v>
+      </c>
+      <c r="D28" s="11" t="n">
+        <v>230252.0</v>
+      </c>
+      <c r="E28" s="11" t="n">
+        <v>222998.0</v>
+      </c>
+      <c r="F28" s="11" t="n">
+        <v>225200.0</v>
+      </c>
+      <c r="G28" s="11" t="n">
+        <v>227291.0</v>
+      </c>
+      <c r="H28" s="11" t="n">
+        <v>230300.0</v>
+      </c>
+      <c r="I28" s="11" t="n">
+        <v>233100.0</v>
+      </c>
+      <c r="J28" s="11" t="n">
+        <v>237000.0</v>
+      </c>
+      <c r="K28" s="11" t="n">
+        <v>240395.0</v>
+      </c>
+      <c r="L28" s="11" t="n">
+        <v>244192.0</v>
+      </c>
+      <c r="M28" s="11" t="n">
+        <v>248665.0</v>
+      </c>
+      <c r="N28" s="11" t="n">
+        <v>252660.0</v>
+      </c>
+      <c r="O28" s="11" t="n">
+        <v>257221.0</v>
+      </c>
+      <c r="P28" s="11" t="n">
+        <v>263033.0</v>
+      </c>
+      <c r="Q28" s="11" t="n">
+        <v>268627.0</v>
+      </c>
+      <c r="R28" s="11" t="n">
+        <v>274563.0</v>
+      </c>
+      <c r="S28" s="11" t="n">
+        <v>280986.0</v>
+      </c>
+      <c r="T28" s="11" t="n">
+        <v>287056.0</v>
+      </c>
+      <c r="U28" s="11" t="n">
+        <v>294026.0</v>
+      </c>
+      <c r="V28" s="11" t="n">
+        <v>299425.0</v>
+      </c>
+      <c r="W28" s="11" t="n">
+        <v>305174.0</v>
+      </c>
+      <c r="X28" s="11" t="n">
+        <v>311144.0</v>
+      </c>
+      <c r="Y28" s="11" t="n">
+        <v>315274.0</v>
+      </c>
+      <c r="Z28" s="11" t="n">
+        <v>320333.0</v>
+      </c>
+      <c r="AA28" s="11" t="n">
+        <v>328365.0</v>
+      </c>
+      <c r="AB28" s="11" t="n">
+        <v>333776.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="B29" s="10" t="n">
+        <v>5362420.0</v>
+      </c>
+      <c r="C29" s="10" t="n">
+        <v>5346635.0</v>
+      </c>
+      <c r="D29" s="10" t="n">
+        <v>5251407.0</v>
+      </c>
+      <c r="E29" s="10" t="n">
+        <v>5349286.0</v>
+      </c>
+      <c r="F29" s="10" t="n">
+        <v>5337873.0</v>
+      </c>
+      <c r="G29" s="10" t="n">
+        <v>5323906.0</v>
+      </c>
+      <c r="H29" s="10" t="n">
+        <v>5312629.0</v>
+      </c>
+      <c r="I29" s="10" t="n">
+        <v>5304434.0</v>
+      </c>
+      <c r="J29" s="10" t="n">
+        <v>5292002.0</v>
+      </c>
+      <c r="K29" s="10" t="n">
+        <v>5287080.0</v>
+      </c>
+      <c r="L29" s="10" t="n">
+        <v>5275839.0</v>
+      </c>
+      <c r="M29" s="10" t="n">
+        <v>5267925.0</v>
+      </c>
+      <c r="N29" s="10" t="n">
+        <v>5257424.0</v>
+      </c>
+      <c r="O29" s="10" t="n">
+        <v>5241821.0</v>
+      </c>
+      <c r="P29" s="10" t="n">
+        <v>5207259.0</v>
+      </c>
+      <c r="Q29" s="10" t="n">
+        <v>5182225.0</v>
+      </c>
+      <c r="R29" s="10" t="n">
+        <v>5152770.0</v>
+      </c>
+      <c r="S29" s="10" t="n">
+        <v>5128422.0</v>
+      </c>
+      <c r="T29" s="10" t="n">
+        <v>5101174.0</v>
+      </c>
+      <c r="U29" s="10" t="n">
+        <v>5076104.0</v>
+      </c>
+      <c r="V29" s="10" t="n">
+        <v>5054972.0</v>
+      </c>
+      <c r="W29" s="10" t="n">
+        <v>5039416.0</v>
+      </c>
+      <c r="X29" s="10" t="n">
+        <v>5025500.0</v>
+      </c>
+      <c r="Y29" s="10" t="n">
+        <v>5004102.0</v>
+      </c>
+      <c r="Z29" s="10" t="n">
+        <v>4981528.0</v>
+      </c>
+      <c r="AA29" s="10" t="n">
+        <v>4974484.0</v>
+      </c>
+      <c r="AB29" s="10" t="n">
+        <v>4961249.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>Malta</t>
+        </is>
+      </c>
+      <c r="B30" s="11" t="n">
+        <v>194208.0</v>
+      </c>
+      <c r="C30" s="11" t="n">
+        <v>195277.0</v>
+      </c>
+      <c r="D30" s="11" t="n">
+        <v>196331.0</v>
+      </c>
+      <c r="E30" s="11" t="n">
+        <v>197726.0</v>
+      </c>
+      <c r="F30" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G30" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H30" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I30" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J30" s="11" t="n">
+        <v>204161.0</v>
+      </c>
+      <c r="K30" s="11" t="n">
+        <v>204097.0</v>
+      </c>
+      <c r="L30" s="11" t="n">
+        <v>205098.0</v>
+      </c>
+      <c r="M30" s="11" t="n">
+        <v>206319.0</v>
+      </c>
+      <c r="N30" s="11" t="n">
+        <v>207824.0</v>
+      </c>
+      <c r="O30" s="11" t="n">
+        <v>208584.0</v>
+      </c>
+      <c r="P30" s="11" t="n">
+        <v>209851.0</v>
+      </c>
+      <c r="Q30" s="11" t="n">
+        <v>211440.0</v>
+      </c>
+      <c r="R30" s="11" t="n">
+        <v>213935.0</v>
+      </c>
+      <c r="S30" s="11" t="n">
+        <v>218310.0</v>
+      </c>
+      <c r="T30" s="11" t="n">
+        <v>223127.0</v>
+      </c>
+      <c r="U30" s="11" t="n">
+        <v>227632.0</v>
+      </c>
+      <c r="V30" s="11" t="n">
+        <v>234099.0</v>
+      </c>
+      <c r="W30" s="11" t="n">
+        <v>240787.0</v>
+      </c>
+      <c r="X30" s="11" t="n">
+        <v>248296.0</v>
+      </c>
+      <c r="Y30" s="11" t="n">
+        <v>248511.0</v>
+      </c>
+      <c r="Z30" s="11" t="n">
+        <v>249705.0</v>
+      </c>
+      <c r="AA30" s="11" t="n">
+        <v>257230.0</v>
+      </c>
+      <c r="AB30" s="11" t="n">
+        <v>264697.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="B31" s="10" t="n">
+        <v>7914150.0</v>
+      </c>
+      <c r="C31" s="10" t="n">
+        <v>7966954.0</v>
+      </c>
+      <c r="D31" s="10" t="n">
+        <v>8017633.0</v>
+      </c>
+      <c r="E31" s="10" t="n">
+        <v>8077220.0</v>
+      </c>
+      <c r="F31" s="10" t="n">
+        <v>8133318.0</v>
+      </c>
+      <c r="G31" s="10" t="n">
+        <v>8177101.0</v>
+      </c>
+      <c r="H31" s="10" t="n">
+        <v>8212118.0</v>
+      </c>
+      <c r="I31" s="10" t="n">
+        <v>8239547.0</v>
+      </c>
+      <c r="J31" s="10" t="n">
+        <v>8256803.0</v>
+      </c>
+      <c r="K31" s="10" t="n">
+        <v>8269478.0</v>
+      </c>
+      <c r="L31" s="10" t="n">
+        <v>8293326.0</v>
+      </c>
+      <c r="M31" s="10" t="n">
+        <v>8329391.0</v>
+      </c>
+      <c r="N31" s="10" t="n">
+        <v>8371513.0</v>
+      </c>
+      <c r="O31" s="10" t="n">
+        <v>8412317.0</v>
+      </c>
+      <c r="P31" s="10" t="n">
+        <v>8447477.0</v>
+      </c>
+      <c r="Q31" s="10" t="n">
+        <v>8472236.0</v>
+      </c>
+      <c r="R31" s="10" t="n">
+        <v>8494904.0</v>
+      </c>
+      <c r="S31" s="10" t="n">
+        <v>8527868.0</v>
+      </c>
+      <c r="T31" s="10" t="n">
+        <v>8561985.0</v>
+      </c>
+      <c r="U31" s="10" t="n">
+        <v>8606405.0</v>
+      </c>
+      <c r="V31" s="10" t="n">
+        <v>8654043.0</v>
+      </c>
+      <c r="W31" s="10" t="n">
+        <v>8701077.0</v>
+      </c>
+      <c r="X31" s="10" t="n">
+        <v>8759554.0</v>
+      </c>
+      <c r="Y31" s="10" t="n">
+        <v>8788879.0</v>
+      </c>
+      <c r="Z31" s="10" t="n">
+        <v>8845204.0</v>
+      </c>
+      <c r="AA31" s="10" t="n">
+        <v>8960982.0</v>
+      </c>
+      <c r="AB31" s="10" t="n">
+        <v>9022174.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="B32" s="11" t="n">
+        <v>4122811.0</v>
+      </c>
+      <c r="C32" s="11" t="n">
+        <v>4126432.0</v>
+      </c>
+      <c r="D32" s="11" t="n">
+        <v>4133855.0</v>
+      </c>
+      <c r="E32" s="11" t="n">
+        <v>4143737.0</v>
+      </c>
+      <c r="F32" s="11" t="n">
+        <v>4156906.0</v>
+      </c>
+      <c r="G32" s="11" t="n">
+        <v>4170674.0</v>
+      </c>
+      <c r="H32" s="11" t="n">
+        <v>4189973.0</v>
+      </c>
+      <c r="I32" s="11" t="n">
+        <v>4216493.0</v>
+      </c>
+      <c r="J32" s="11" t="n">
+        <v>4239954.0</v>
+      </c>
+      <c r="K32" s="11" t="n">
+        <v>4252922.0</v>
+      </c>
+      <c r="L32" s="11" t="n">
+        <v>4265500.0</v>
+      </c>
+      <c r="M32" s="11" t="n">
+        <v>4278068.0</v>
+      </c>
+      <c r="N32" s="11" t="n">
+        <v>4285442.0</v>
+      </c>
+      <c r="O32" s="11" t="n">
+        <v>4296293.0</v>
+      </c>
+      <c r="P32" s="11" t="n">
+        <v>4309977.0</v>
+      </c>
+      <c r="Q32" s="11" t="n">
+        <v>4328238.0</v>
+      </c>
+      <c r="R32" s="11" t="n">
+        <v>4352447.0</v>
+      </c>
+      <c r="S32" s="11" t="n">
+        <v>4384529.0</v>
+      </c>
+      <c r="T32" s="11" t="n">
+        <v>4427918.0</v>
+      </c>
+      <c r="U32" s="11" t="n">
+        <v>4460424.0</v>
+      </c>
+      <c r="V32" s="11" t="n">
+        <v>4483749.0</v>
+      </c>
+      <c r="W32" s="11" t="n">
+        <v>4501742.0</v>
+      </c>
+      <c r="X32" s="11" t="n">
+        <v>4522292.0</v>
+      </c>
+      <c r="Y32" s="11" t="n">
+        <v>4535712.0</v>
+      </c>
+      <c r="Z32" s="11" t="n">
+        <v>4553444.0</v>
+      </c>
+      <c r="AA32" s="11" t="n">
+        <v>4619957.0</v>
+      </c>
+      <c r="AB32" s="11" t="n">
+        <v>4643918.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="B33" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C33" s="10" t="n">
+        <v>1.9698E7</v>
+      </c>
+      <c r="D33" s="10" t="n">
+        <v>1.9715504E7</v>
+      </c>
+      <c r="E33" s="10" t="n">
+        <v>1.9716616E7</v>
+      </c>
+      <c r="F33" s="10" t="n">
+        <v>1.9713677E7</v>
+      </c>
+      <c r="G33" s="10" t="n">
+        <v>1.9711782E7</v>
+      </c>
+      <c r="H33" s="10" t="n">
+        <v>1.9704178E7</v>
+      </c>
+      <c r="I33" s="10" t="n">
+        <v>1.9703582E7</v>
+      </c>
+      <c r="J33" s="10" t="n">
+        <v>1.97032E7</v>
+      </c>
+      <c r="K33" s="10" t="n">
+        <v>1.9698704E7</v>
+      </c>
+      <c r="L33" s="10" t="n">
+        <v>1.970414E7</v>
+      </c>
+      <c r="M33" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N33" s="10" t="n">
+        <v>1.9610632E7</v>
+      </c>
+      <c r="O33" s="10" t="n">
+        <v>1.9633018E7</v>
+      </c>
+      <c r="P33" s="10" t="n">
+        <v>1.9636496E7</v>
+      </c>
+      <c r="Q33" s="10" t="n">
+        <v>1.9636442E7</v>
+      </c>
+      <c r="R33" s="10" t="n">
+        <v>1.9613892E7</v>
+      </c>
+      <c r="S33" s="10" t="n">
+        <v>1.9608451E7</v>
+      </c>
+      <c r="T33" s="10" t="n">
+        <v>1.9590169E7</v>
+      </c>
+      <c r="U33" s="10" t="n">
+        <v>1.9595127E7</v>
+      </c>
+      <c r="V33" s="10" t="n">
+        <v>1.9596388E7</v>
+      </c>
+      <c r="W33" s="10" t="n">
+        <v>1.9592436E7</v>
+      </c>
+      <c r="X33" s="10" t="n">
+        <v>1.9584757E7</v>
+      </c>
+      <c r="Y33" s="10" t="n">
+        <v>1.9131216E7</v>
+      </c>
+      <c r="Z33" s="10" t="n">
+        <v>1.9043758E7</v>
+      </c>
+      <c r="AA33" s="10" t="n">
+        <v>1.8980357E7</v>
+      </c>
+      <c r="AB33" s="10" t="n">
+        <v>1.8914999E7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B34" s="11" t="n">
+        <v>5255612.0</v>
+      </c>
+      <c r="C34" s="11" t="n">
+        <v>5278786.0</v>
+      </c>
+      <c r="D34" s="11" t="n">
+        <v>5309528.0</v>
+      </c>
+      <c r="E34" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F34" s="11" t="n">
+        <v>5343969.0</v>
+      </c>
+      <c r="G34" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H34" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I34" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J34" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K34" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L34" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M34" s="11" t="n">
+        <v>5496775.0</v>
+      </c>
+      <c r="N34" s="11" t="n">
+        <v>5509734.0</v>
+      </c>
+      <c r="O34" s="11" t="n">
+        <v>5519178.0</v>
+      </c>
+      <c r="P34" s="11" t="n">
+        <v>5520561.0</v>
+      </c>
+      <c r="Q34" s="11" t="n">
+        <v>5500595.0</v>
+      </c>
+      <c r="R34" s="11" t="n">
+        <v>5478747.0</v>
+      </c>
+      <c r="S34" s="11" t="n">
+        <v>5460453.0</v>
+      </c>
+      <c r="T34" s="11" t="n">
+        <v>5449089.0</v>
+      </c>
+      <c r="U34" s="11" t="n">
+        <v>5436542.0</v>
+      </c>
+      <c r="V34" s="11" t="n">
+        <v>5433139.0</v>
+      </c>
+      <c r="W34" s="11" t="n">
+        <v>5434882.0</v>
+      </c>
+      <c r="X34" s="11" t="n">
+        <v>5448405.0</v>
+      </c>
+      <c r="Y34" s="11" t="n">
+        <v>5451426.0</v>
+      </c>
+      <c r="Z34" s="11" t="n">
+        <v>5453855.0</v>
+      </c>
+      <c r="AA34" s="11" t="n">
+        <v>5495973.0</v>
+      </c>
+      <c r="AB34" s="11" t="n">
+        <v>5556158.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="B35" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C35" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D35" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E35" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F35" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G35" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H35" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I35" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J35" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K35" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L35" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M35" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N35" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O35" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P35" s="10" t="n">
+        <v>1.0318889E7</v>
+      </c>
+      <c r="Q35" s="10" t="n">
+        <v>1.0258594E7</v>
+      </c>
+      <c r="R35" s="10" t="n">
+        <v>1.0201259E7</v>
+      </c>
+      <c r="S35" s="10" t="n">
+        <v>1.0163573E7</v>
+      </c>
+      <c r="T35" s="10" t="n">
+        <v>1.0110852E7</v>
+      </c>
+      <c r="U35" s="10" t="n">
+        <v>1.0041869E7</v>
+      </c>
+      <c r="V35" s="10" t="n">
+        <v>9978614.0</v>
+      </c>
+      <c r="W35" s="10" t="n">
+        <v>9914008.0</v>
+      </c>
+      <c r="X35" s="10" t="n">
+        <v>9868177.0</v>
+      </c>
+      <c r="Y35" s="10" t="n">
+        <v>9814072.0</v>
+      </c>
+      <c r="Z35" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA35" s="10" t="n">
+        <v>9790587.0</v>
+      </c>
+      <c r="AB35" s="10" t="n">
+        <v>9796206.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="B36" s="11" t="n">
+        <v>1016763.0</v>
+      </c>
+      <c r="C36" s="11" t="n">
+        <v>1015117.0</v>
+      </c>
+      <c r="D36" s="11" t="n">
+        <v>1016943.0</v>
+      </c>
+      <c r="E36" s="11" t="n">
+        <v>1017352.0</v>
+      </c>
+      <c r="F36" s="11" t="n">
+        <v>1019024.0</v>
+      </c>
+      <c r="G36" s="11" t="n">
+        <v>1019446.0</v>
+      </c>
+      <c r="H36" s="11" t="n">
+        <v>1019631.0</v>
+      </c>
+      <c r="I36" s="11" t="n">
+        <v>1020538.0</v>
+      </c>
+      <c r="J36" s="11" t="n">
+        <v>1021893.0</v>
+      </c>
+      <c r="K36" s="11" t="n">
+        <v>1023395.0</v>
+      </c>
+      <c r="L36" s="11" t="n">
+        <v>1025242.0</v>
+      </c>
+      <c r="M36" s="11" t="n">
+        <v>1028417.0</v>
+      </c>
+      <c r="N36" s="11" t="n">
+        <v>1032869.0</v>
+      </c>
+      <c r="O36" s="11" t="n">
+        <v>1035626.0</v>
+      </c>
+      <c r="P36" s="11" t="n">
+        <v>1038765.0</v>
+      </c>
+      <c r="Q36" s="11" t="n">
+        <v>1039760.0</v>
+      </c>
+      <c r="R36" s="11" t="n">
+        <v>1040211.0</v>
+      </c>
+      <c r="S36" s="11" t="n">
+        <v>1040645.0</v>
+      </c>
+      <c r="T36" s="11" t="n">
+        <v>1040855.0</v>
+      </c>
+      <c r="U36" s="11" t="n">
+        <v>1040770.0</v>
+      </c>
+      <c r="V36" s="11" t="n">
+        <v>1039839.0</v>
+      </c>
+      <c r="W36" s="11" t="n">
+        <v>1042252.0</v>
+      </c>
+      <c r="X36" s="11" t="n">
+        <v>1044795.0</v>
+      </c>
+      <c r="Y36" s="11" t="n">
+        <v>1049039.0</v>
+      </c>
+      <c r="Z36" s="11" t="n">
+        <v>1049485.0</v>
+      </c>
+      <c r="AA36" s="11" t="n">
+        <v>1053701.0</v>
+      </c>
+      <c r="AB36" s="11" t="n">
+        <v>1055520.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="B37" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C37" s="10" t="n">
+        <v>2769690.0</v>
+      </c>
+      <c r="D37" s="10" t="n">
+        <v>2773531.0</v>
+      </c>
+      <c r="E37" s="10" t="n">
+        <v>2776486.0</v>
+      </c>
+      <c r="F37" s="10" t="n">
+        <v>2767030.0</v>
+      </c>
+      <c r="G37" s="10" t="n">
+        <v>2767855.0</v>
+      </c>
+      <c r="H37" s="10" t="n">
+        <v>2768929.0</v>
+      </c>
+      <c r="I37" s="10" t="n">
+        <v>2771332.0</v>
+      </c>
+      <c r="J37" s="10" t="n">
+        <v>2773308.0</v>
+      </c>
+      <c r="K37" s="10" t="n">
+        <v>2775353.0</v>
+      </c>
+      <c r="L37" s="10" t="n">
+        <v>2777871.0</v>
+      </c>
+      <c r="M37" s="10" t="n">
+        <v>2782450.0</v>
+      </c>
+      <c r="N37" s="10" t="n">
+        <v>2787987.0</v>
+      </c>
+      <c r="O37" s="10" t="n">
+        <v>2793033.0</v>
+      </c>
+      <c r="P37" s="10" t="n">
+        <v>2772570.0</v>
+      </c>
+      <c r="Q37" s="10" t="n">
+        <v>2774857.0</v>
+      </c>
+      <c r="R37" s="10" t="n">
+        <v>2776889.0</v>
+      </c>
+      <c r="S37" s="10" t="n">
+        <v>2779021.0</v>
+      </c>
+      <c r="T37" s="10" t="n">
+        <v>2780170.0</v>
+      </c>
+      <c r="U37" s="10" t="n">
+        <v>2783659.0</v>
+      </c>
+      <c r="V37" s="10" t="n">
+        <v>2786606.0</v>
+      </c>
+      <c r="W37" s="10" t="n">
+        <v>2789344.0</v>
+      </c>
+      <c r="X37" s="10" t="n">
+        <v>2792523.0</v>
+      </c>
+      <c r="Y37" s="10" t="n">
+        <v>2793295.0</v>
+      </c>
+      <c r="Z37" s="10" t="n">
+        <v>2776809.0</v>
+      </c>
+      <c r="AA37" s="10" t="n">
+        <v>2773698.0</v>
+      </c>
+      <c r="AB37" s="10" t="n">
+        <v>2771470.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="8" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="B38" s="11" t="n">
+        <v>2638251.0</v>
+      </c>
+      <c r="C38" s="11" t="n">
+        <v>2643571.0</v>
+      </c>
+      <c r="D38" s="11" t="n">
+        <v>2648276.0</v>
+      </c>
+      <c r="E38" s="11" t="n">
+        <v>2651774.0</v>
+      </c>
+      <c r="F38" s="11" t="n">
+        <v>2657304.0</v>
+      </c>
+      <c r="G38" s="11" t="n">
+        <v>2661379.0</v>
+      </c>
+      <c r="H38" s="11" t="n">
+        <v>2666839.0</v>
+      </c>
+      <c r="I38" s="11" t="n">
+        <v>2674534.0</v>
+      </c>
+      <c r="J38" s="11" t="n">
+        <v>2683230.0</v>
+      </c>
+      <c r="K38" s="11" t="n">
+        <v>2693213.0</v>
+      </c>
+      <c r="L38" s="11" t="n">
+        <v>2703697.0</v>
+      </c>
+      <c r="M38" s="11" t="n">
+        <v>2714661.0</v>
+      </c>
+      <c r="N38" s="11" t="n">
+        <v>2726360.0</v>
+      </c>
+      <c r="O38" s="11" t="n">
+        <v>2736860.0</v>
+      </c>
+      <c r="P38" s="11" t="n">
+        <v>2748733.0</v>
+      </c>
+      <c r="Q38" s="11" t="n">
+        <v>2760052.0</v>
+      </c>
+      <c r="R38" s="11" t="n">
+        <v>2770906.0</v>
+      </c>
+      <c r="S38" s="11" t="n">
+        <v>2779890.0</v>
+      </c>
+      <c r="T38" s="11" t="n">
+        <v>2785818.0</v>
+      </c>
+      <c r="U38" s="11" t="n">
+        <v>2790970.0</v>
+      </c>
+      <c r="V38" s="11" t="n">
+        <v>2793999.0</v>
+      </c>
+      <c r="W38" s="11" t="n">
+        <v>2794629.0</v>
+      </c>
+      <c r="X38" s="11" t="n">
+        <v>2797030.0</v>
+      </c>
+      <c r="Y38" s="11" t="n">
+        <v>2799985.0</v>
+      </c>
+      <c r="Z38" s="11" t="n">
+        <v>2805140.0</v>
+      </c>
+      <c r="AA38" s="11" t="n">
+        <v>2810493.0</v>
+      </c>
+      <c r="AB38" s="11" t="n">
+        <v>2829953.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="B39" s="10" t="n">
+        <v>4475712.0</v>
+      </c>
+      <c r="C39" s="10" t="n">
+        <v>4478703.0</v>
+      </c>
+      <c r="D39" s="10" t="n">
+        <v>4481308.0</v>
+      </c>
+      <c r="E39" s="10" t="n">
+        <v>4490039.0</v>
+      </c>
+      <c r="F39" s="10" t="n">
+        <v>4500683.0</v>
+      </c>
+      <c r="G39" s="10" t="n">
+        <v>4513681.0</v>
+      </c>
+      <c r="H39" s="10" t="n">
+        <v>4529014.0</v>
+      </c>
+      <c r="I39" s="10" t="n">
+        <v>4545081.0</v>
+      </c>
+      <c r="J39" s="10" t="n">
+        <v>4561202.0</v>
+      </c>
+      <c r="K39" s="10" t="n">
+        <v>4589734.0</v>
+      </c>
+      <c r="L39" s="10" t="n">
+        <v>4619006.0</v>
+      </c>
+      <c r="M39" s="10" t="n">
+        <v>4652637.0</v>
+      </c>
+      <c r="N39" s="10" t="n">
+        <v>4691668.0</v>
+      </c>
+      <c r="O39" s="10" t="n">
+        <v>4725326.0</v>
+      </c>
+      <c r="P39" s="10" t="n">
+        <v>4756021.0</v>
+      </c>
+      <c r="Q39" s="10" t="n">
+        <v>4789988.0</v>
+      </c>
+      <c r="R39" s="10" t="n">
+        <v>4830507.0</v>
+      </c>
+      <c r="S39" s="10" t="n">
+        <v>4875115.0</v>
+      </c>
+      <c r="T39" s="10" t="n">
+        <v>4920051.0</v>
+      </c>
+      <c r="U39" s="10" t="n">
+        <v>4981806.0</v>
+      </c>
+      <c r="V39" s="10" t="n">
+        <v>5037580.0</v>
+      </c>
+      <c r="W39" s="10" t="n">
+        <v>5087747.0</v>
+      </c>
+      <c r="X39" s="10" t="n">
+        <v>5131775.0</v>
+      </c>
+      <c r="Y39" s="10" t="n">
+        <v>5156448.0</v>
+      </c>
+      <c r="Z39" s="10" t="n">
+        <v>5191619.0</v>
+      </c>
+      <c r="AA39" s="10" t="n">
+        <v>5223232.0</v>
+      </c>
+      <c r="AB39" s="10" t="n">
+        <v>5239188.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Special value</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>